--- a/output/aggregate_tables/Area Statistics/area_27_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_27_summary.xlsx
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>88.24609446909537</v>
+        <v>91.3622396881984</v>
       </c>
     </row>
     <row r="3">
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>81.29061255337632</v>
+        <v>84.16114586354875</v>
       </c>
     </row>
     <row r="9">

--- a/output/aggregate_tables/Area Statistics/area_27_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_27_summary.xlsx
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.9839440814836907</v>
+        <v>0.9839436444806937</v>
       </c>
     </row>
     <row r="5">
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.9839440814836907</v>
+        <v>0.9839436444806937</v>
       </c>
     </row>
     <row r="7">
@@ -1410,7 +1410,7 @@
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>3.56009176493773</v>
+        <v>3.560091977063498</v>
       </c>
     </row>
     <row r="8">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>83.02405763732639</v>
+        <v>83.02406258426124</v>
       </c>
     </row>
     <row r="9">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>13.41585059773589</v>
+        <v>13.41584543867526</v>
       </c>
     </row>
     <row r="10">
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="C10" s="4" t="n">
-        <v>86.58414940226412</v>
+        <v>86.58415456132474</v>
       </c>
     </row>
     <row r="11">
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>13.41585059773589</v>
+        <v>13.41584543867526</v>
       </c>
     </row>
   </sheetData>
@@ -1582,28 +1582,28 @@
         <v>6.089142804467025</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.9839440814836907</v>
+        <v>0.9839436444806937</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>6.350246727481826</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.9839440814836907</v>
+        <v>0.9839436444806937</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.56009176493773</v>
+        <v>3.560091977063498</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>83.02405763732639</v>
+        <v>83.02406258426124</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.41585059773589</v>
+        <v>13.41584543867526</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>86.58414940226412</v>
+        <v>86.58415456132474</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.41585059773589</v>
+        <v>13.41584543867526</v>
       </c>
     </row>
     <row r="5">
@@ -1619,28 +1619,28 @@
         <v>6.089142804467025</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.9839440814836907</v>
+        <v>0.9839436444806937</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>6.350246727481826</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.9839440814836907</v>
+        <v>0.9839436444806937</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.56009176493773</v>
+        <v>3.560091977063498</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>83.02405763732639</v>
+        <v>83.02406258426124</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.41585059773589</v>
+        <v>13.41584543867526</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>86.58414940226412</v>
+        <v>86.58415456132474</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>13.41585059773589</v>
+        <v>13.41584543867526</v>
       </c>
     </row>
     <row r="6">
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>91.3622396881984</v>
+        <v>91.36211995779584</v>
       </c>
     </row>
     <row r="3">
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.56009176493773</v>
+        <v>3.560091977063498</v>
       </c>
     </row>
     <row r="4">
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>83.02405763732639</v>
+        <v>83.02406258426124</v>
       </c>
     </row>
     <row r="5">
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.41585059773589</v>
+        <v>13.41584543867526</v>
       </c>
     </row>
     <row r="6">
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>86.58414940226412</v>
+        <v>86.58415456132474</v>
       </c>
     </row>
     <row r="7">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>13.41585059773589</v>
+        <v>13.41584543867526</v>
       </c>
     </row>
     <row r="8">
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>84.16114586354875</v>
+        <v>84.16103557019441</v>
       </c>
     </row>
     <row r="9">

--- a/output/aggregate_tables/Area Statistics/area_27_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_27_summary.xlsx
@@ -644,7 +644,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>18</v>
@@ -653,28 +653,28 @@
         <v>117</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>135</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>10.16949152542373</v>
+        <v>10.1123595505618</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>66.10169491525424</v>
+        <v>65.73033707865169</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>23.72881355932203</v>
+        <v>24.15730337078652</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>76.27118644067797</v>
+        <v>75.84269662921348</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>23.72881355932203</v>
+        <v>24.15730337078652</v>
       </c>
     </row>
   </sheetData>
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>7</v>
@@ -775,28 +775,28 @@
         <v>77</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>84</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>6.086956521739131</v>
+        <v>6.03448275862069</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>66.95652173913044</v>
+        <v>66.37931034482759</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>26.95652173913043</v>
+        <v>27.58620689655172</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>73.04347826086956</v>
+        <v>72.41379310344827</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>26.95652173913043</v>
+        <v>27.58620689655172</v>
       </c>
     </row>
     <row r="3">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>18</v>
@@ -900,28 +900,28 @@
         <v>117</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>135</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.16949152542373</v>
+        <v>10.1123595505618</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>66.10169491525424</v>
+        <v>65.73033707865169</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>23.72881355932203</v>
+        <v>24.15730337078652</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>76.27118644067797</v>
+        <v>75.84269662921348</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>23.72881355932203</v>
+        <v>24.15730337078652</v>
       </c>
     </row>
   </sheetData>
@@ -975,13 +975,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>9</v>
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>49</v>
@@ -1245,7 +1245,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>18</v>
@@ -1254,28 +1254,28 @@
         <v>117</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>135</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.16949152542373</v>
+        <v>10.1123595505618</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>66.10169491525424</v>
+        <v>65.73033707865169</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>23.72881355932203</v>
+        <v>24.15730337078652</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>76.27118644067797</v>
+        <v>75.84269662921348</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>23.72881355932203</v>
+        <v>24.15730337078652</v>
       </c>
       <c r="N4" s="3" t="n">
         <v>34</v>
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.089142804467025</v>
+        <v>6.089112688587222</v>
       </c>
     </row>
     <row r="4">
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.9839436444806937</v>
+        <v>0.9839440814836907</v>
       </c>
     </row>
     <row r="5">
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.350246727481826</v>
+        <v>6.350216611602023</v>
       </c>
     </row>
     <row r="6">
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.9839436444806937</v>
+        <v>0.9839440814836907</v>
       </c>
     </row>
     <row r="7">
@@ -1410,7 +1410,7 @@
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>3.560091977063498</v>
+        <v>3.560106383556024</v>
       </c>
     </row>
     <row r="8">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>83.02406258426124</v>
+        <v>83.02398792990367</v>
       </c>
     </row>
     <row r="9">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>13.41584543867526</v>
+        <v>13.41590568654031</v>
       </c>
     </row>
     <row r="10">
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="C10" s="4" t="n">
-        <v>86.58415456132474</v>
+        <v>86.58409431345969</v>
       </c>
     </row>
     <row r="11">
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>13.41584543867526</v>
+        <v>13.41590568654031</v>
       </c>
     </row>
   </sheetData>
@@ -1579,31 +1579,31 @@
         <v>0.2611039230148012</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.089142804467025</v>
+        <v>6.089112688587222</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.9839436444806937</v>
+        <v>0.9839440814836907</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>6.350246727481826</v>
+        <v>6.350216611602023</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.9839436444806937</v>
+        <v>0.9839440814836907</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.560091977063498</v>
+        <v>3.560106383556024</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>83.02406258426124</v>
+        <v>83.02398792990367</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.41584543867526</v>
+        <v>13.41590568654031</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>86.58415456132474</v>
+        <v>86.58409431345969</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.41584543867526</v>
+        <v>13.41590568654031</v>
       </c>
     </row>
     <row r="5">
@@ -1616,31 +1616,31 @@
         <v>0.2611039230148012</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.089142804467025</v>
+        <v>6.089112688587222</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.9839436444806937</v>
+        <v>0.9839440814836907</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>6.350246727481826</v>
+        <v>6.350216611602023</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.9839436444806937</v>
+        <v>0.9839440814836907</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.560091977063498</v>
+        <v>3.560106383556024</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>83.02406258426124</v>
+        <v>83.02398792990367</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.41584543867526</v>
+        <v>13.41590568654031</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>86.58415456132474</v>
+        <v>86.58409431345969</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>13.41584543867526</v>
+        <v>13.41590568654031</v>
       </c>
     </row>
     <row r="6">
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>91.36211995779584</v>
+        <v>91.36174762834042</v>
       </c>
     </row>
     <row r="3">
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.560091977063498</v>
+        <v>3.560106383556024</v>
       </c>
     </row>
     <row r="4">
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>83.02406258426124</v>
+        <v>83.02398792990367</v>
       </c>
     </row>
     <row r="5">
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.41584543867526</v>
+        <v>13.41590568654031</v>
       </c>
     </row>
     <row r="6">
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>86.58415456132474</v>
+        <v>86.58409431345969</v>
       </c>
     </row>
     <row r="7">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>13.41584543867526</v>
+        <v>13.41590568654031</v>
       </c>
     </row>
     <row r="8">

--- a/output/aggregate_tables/Area Statistics/area_27_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_27_summary.xlsx
@@ -9,10 +9,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Number" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Tier" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary of Stocks" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Number" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Area)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Tier)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Landings" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary of Area by Tier" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Number" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Area)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Tier)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Landings" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -124,27 +125,6 @@
       <bottom style="thin"/>
     </border>
     <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin"/>
@@ -176,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -194,10 +174,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -688,7 +666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -766,161 +744,79 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>6.03448275862069</v>
+        <v>10.1123595505618</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>66.37931034482759</v>
+        <v>65.73033707865169</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>27.58620689655172</v>
+        <v>24.15730337078652</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>72.41379310344827</v>
+        <v>75.84269662921348</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>27.58620689655172</v>
+        <v>24.15730337078652</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>2</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>49</v>
+        <v>178</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.122448979591836</v>
+        <v>10.1123595505618</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>77.55102040816327</v>
+        <v>65.73033707865169</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.3265306122449</v>
+        <v>24.15730337078652</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>83.67346938775511</v>
+        <v>75.84269662921348</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.3265306122449</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>61.53846153846154</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>15.38461538461539</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>76.92307692307693</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>23.07692307692308</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>178</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>117</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>43</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>135</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>43</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>10.1123595505618</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>65.73033707865169</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>24.15730337078652</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>75.84269662921348</v>
-      </c>
-      <c r="M5" s="4" t="n">
         <v>24.15730337078652</v>
       </c>
     </row>
@@ -935,7 +831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -975,68 +871,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>2</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>53</v>
+        <v>205</v>
       </c>
       <c r="C3" s="3" t="n">
+        <v>178</v>
+      </c>
+      <c r="D3" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="D3" s="3" t="n">
-        <v>28</v>
-      </c>
       <c r="E3" s="3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>36</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>205</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>178</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>49</v>
-      </c>
-      <c r="E5" s="3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1046,6 +908,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>No. of stocks</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>No. of ASFIS species</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>No. of ISSCAAP groups</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>No. of U</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>No. of MSF</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>No. of O</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sustainable</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Unsustainable</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Tier 1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>178</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>117</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>10.1123595505618</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>65.73033707865169</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>24.15730337078652</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>75.84269662921348</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>24.15730337078652</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1320,159 +1314,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="C1" s="8" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>Total Landings</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>U (Mt)</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>0.2611039230148012</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="n"/>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>MSF (Mt)</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>6.089112688587222</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="n"/>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>O (Mt)</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>0.9839440814836907</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="n"/>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (Mt)</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>6.350216611602023</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="10" t="n"/>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (Mt)</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.9839440814836907</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>Weighted % by Landings</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>3.560106383556024</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="n"/>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>83.02398792990367</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>13.41590568654031</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>86.58409431345969</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="10" t="n"/>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>13.41590568654031</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1487,19 +1335,19 @@
           <t>Total Landings</t>
         </is>
       </c>
-      <c r="C1" s="11" t="n"/>
-      <c r="D1" s="11" t="n"/>
-      <c r="E1" s="11" t="n"/>
-      <c r="F1" s="12" t="n"/>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="10" t="n"/>
       <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Weighted % by Landings</t>
         </is>
       </c>
-      <c r="H1" s="11" t="n"/>
-      <c r="I1" s="11" t="n"/>
-      <c r="J1" s="11" t="n"/>
-      <c r="K1" s="12" t="n"/>
+      <c r="H1" s="9" t="n"/>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="10" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="8" t="inlineStr"/>
@@ -1555,11 +1403,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
-        <is>
-          <t>Area</t>
-        </is>
-      </c>
+      <c r="A3" s="4" t="n"/>
       <c r="B3" s="4" t="n"/>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
@@ -1572,7 +1416,7 @@
       <c r="K3" s="4" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="n">
+      <c r="A4" s="11" t="n">
         <v>27</v>
       </c>
       <c r="B4" s="4" t="n">
@@ -1604,65 +1448,6 @@
       </c>
       <c r="K4" s="4" t="n">
         <v>13.41590568654031</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>0.2611039230148012</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>6.089112688587222</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.9839440814836907</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>6.350216611602023</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.9839440814836907</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>3.560106383556024</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>83.02398792990367</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>13.41590568654031</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>86.58409431345969</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>13.41590568654031</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>48,58,88</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1680,7 +1465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1689,154 +1474,333 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="C1" s="8" t="n">
-        <v>27</v>
-      </c>
+      <c r="A1" s="8" t="inlineStr"/>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Total Landings</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="10" t="n"/>
+      <c r="G1" s="8" t="inlineStr">
+        <is>
+          <t>Weighted % by Landings</t>
+        </is>
+      </c>
+      <c r="H1" s="9" t="n"/>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="10" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>Updated SoSI Categories</t>
-        </is>
-      </c>
+      <c r="A2" s="8" t="inlineStr"/>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>Coverage (%)</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>91.36174762834042</v>
+          <t>U (Mt)</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (Mt)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>O (Mt)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (Mt)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (Mt)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="n"/>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="n">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>0.2611039230148012</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>6.089112688587222</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.9839440814836907</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>6.350216611602023</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.9839440814836907</v>
+      </c>
+      <c r="G4" s="4" t="n">
         <v>3.560106383556024</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="n"/>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="n">
+      <c r="H4" s="4" t="n">
         <v>83.02398792990367</v>
       </c>
+      <c r="I4" s="4" t="n">
+        <v>13.41590568654031</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>86.58409431345969</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>13.41590568654031</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="n"/>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>Area 27 Total</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>0.2611039230148012</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>6.089112688587222</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.9839440814836907</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>6.350216611602023</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.9839440814836907</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>3.560106383556024</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>83.02398792990367</v>
+      </c>
+      <c r="I5" s="4" t="n">
         <v>13.41590568654031</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="n"/>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="n">
+      <c r="J5" s="4" t="n">
         <v>86.58409431345969</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="10" t="n"/>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="n">
+      <c r="K5" s="4" t="n">
         <v>13.41590568654031</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="inlineStr">
-        <is>
-          <t>Previous SoSI Categories</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>Coverage (%)</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>84.16103557019441</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>2.793515889223048</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>78.97819935291929</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="n"/>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>18.22828475785768</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>81.77171524214234</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="10" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="n">
-        <v>18.22828475785768</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr"/>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Updated SoSI Categories</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="9" t="n"/>
+      <c r="G1" s="10" t="n"/>
+      <c r="H1" s="8" t="inlineStr">
+        <is>
+          <t>Previous SoSI Categories</t>
+        </is>
+      </c>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="9" t="n"/>
+      <c r="L1" s="9" t="n"/>
+      <c r="M1" s="10" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr"/>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>Coverage (%)</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>Coverage (%)</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="L2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="M2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="n">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>91.30191835637562</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>3.560106383556024</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>83.02398792990367</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>13.41590568654031</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>86.58409431345969</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>13.41590568654031</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>84.15085075371101</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.793515889223048</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>78.97819935291929</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>18.22828475785768</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>81.77171524214234</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>18.22828475785768</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/aggregate_tables/Area Statistics/area_27_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_27_summary.xlsx
@@ -913,7 +913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,6 +1031,52 @@
         <v>75.84269662921348</v>
       </c>
       <c r="N2" s="4" t="n">
+        <v>24.15730337078652</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>178</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>117</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>10.1123595505618</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>65.73033707865169</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>24.15730337078652</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>75.84269662921348</v>
+      </c>
+      <c r="N3" s="4" t="n">
         <v>24.15730337078652</v>
       </c>
     </row>
@@ -1647,7 +1693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1665,77 +1711,65 @@
       <c r="C1" s="9" t="n"/>
       <c r="D1" s="9" t="n"/>
       <c r="E1" s="9" t="n"/>
-      <c r="F1" s="9" t="n"/>
-      <c r="G1" s="10" t="n"/>
-      <c r="H1" s="8" t="inlineStr">
+      <c r="F1" s="10" t="n"/>
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Previous SoSI Categories</t>
         </is>
       </c>
+      <c r="H1" s="9" t="n"/>
       <c r="I1" s="9" t="n"/>
       <c r="J1" s="9" t="n"/>
-      <c r="K1" s="9" t="n"/>
-      <c r="L1" s="9" t="n"/>
-      <c r="M1" s="10" t="n"/>
+      <c r="K1" s="10" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="8" t="inlineStr"/>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>Coverage (%)</t>
+          <t>U (%)</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
           <t>U (%)</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="H2" s="8" t="inlineStr">
         <is>
           <t>MSF (%)</t>
         </is>
       </c>
-      <c r="E2" s="8" t="inlineStr">
+      <c r="I2" s="8" t="inlineStr">
         <is>
           <t>O (%)</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="J2" s="8" t="inlineStr">
         <is>
           <t>Sustainable (%)</t>
         </is>
       </c>
-      <c r="G2" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="H2" s="8" t="inlineStr">
-        <is>
-          <t>Coverage (%)</t>
-        </is>
-      </c>
-      <c r="I2" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="J2" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
       <c r="K2" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="L2" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="M2" s="8" t="inlineStr">
         <is>
           <t>Unsustainable (%)</t>
         </is>
@@ -1753,54 +1787,46 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="4" t="n"/>
-      <c r="M3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="11" t="n">
         <v>27</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>91.30191835637562</v>
+        <v>3.560106383556024</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.560106383556024</v>
+        <v>83.02398792990367</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>83.02398792990367</v>
+        <v>13.41590568654031</v>
       </c>
       <c r="E4" s="4" t="n">
+        <v>86.58409431345969</v>
+      </c>
+      <c r="F4" s="4" t="n">
         <v>13.41590568654031</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <v>86.58409431345969</v>
-      </c>
       <c r="G4" s="4" t="n">
-        <v>13.41590568654031</v>
+        <v>2.793232987766152</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>84.15085075371101</v>
+        <v>78.97560440655828</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.793515889223048</v>
+        <v>18.23116260567558</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>78.97819935291929</v>
+        <v>81.76883739432442</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.22828475785768</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>81.77171524214234</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>18.22828475785768</v>
+        <v>18.23116260567558</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
